--- a/final-dbset.xlsx
+++ b/final-dbset.xlsx
@@ -9,286 +9,516 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="final-dbset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="126">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>genre1</t>
+  </si>
+  <si>
+    <t>genre2</t>
+  </si>
+  <si>
+    <t>genre3</t>
+  </si>
+  <si>
+    <t>genre4</t>
+  </si>
+  <si>
+    <t>metacritic</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>achievements</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>owners</t>
+  </si>
+  <si>
+    <t>players_forever</t>
+  </si>
+  <si>
+    <t>players_2weeks</t>
+  </si>
+  <si>
+    <t>average_forever</t>
+  </si>
+  <si>
+    <t>average_2weeks</t>
+  </si>
+  <si>
+    <t>median_forever</t>
+  </si>
+  <si>
+    <t>median_2weeks</t>
+  </si>
+  <si>
+    <t>Age of Empires II HD</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Alien Swarm</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Arma 2</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Arma 2: Operation Arrowhead</t>
+  </si>
+  <si>
+    <t>Arma 3</t>
+  </si>
+  <si>
+    <t>Bastion</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>BioShock</t>
+  </si>
+  <si>
+    <t>BioShock Infinite</t>
+  </si>
+  <si>
+    <t>Borderlands</t>
+  </si>
+  <si>
+    <t>Borderlands 2</t>
+  </si>
+  <si>
+    <t>Call of Duty: Black Ops</t>
+  </si>
+  <si>
+    <t>Call of Duty: Black Ops II</t>
+  </si>
+  <si>
+    <t>Call of Duty: Modern Warfare 2</t>
+  </si>
+  <si>
+    <t>Call of Duty: Modern Warfare 3</t>
+  </si>
+  <si>
+    <t>Castle Crashers</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Casual</t>
+  </si>
+  <si>
+    <t>Chivalry: Medieval Warfare</t>
+  </si>
+  <si>
+    <t>Counter-Strike</t>
+  </si>
+  <si>
+    <t>Counter-Strike: Condition Zero</t>
+  </si>
+  <si>
+    <t>Counter-Strike: Global Offensive</t>
+  </si>
+  <si>
+    <t>Counter-Strike: Source</t>
+  </si>
+  <si>
+    <t>Counter-Strike Nexon: Zombies</t>
+  </si>
+  <si>
+    <t>Free to Play</t>
+  </si>
+  <si>
+    <t>DARK SOULS: Prepare To Die Edition</t>
+  </si>
+  <si>
+    <t>Day of Defeat</t>
+  </si>
+  <si>
+    <t>Day of Defeat: Source</t>
+  </si>
+  <si>
+    <t>DayZ</t>
+  </si>
+  <si>
+    <t>Massively Multiplayer</t>
+  </si>
+  <si>
+    <t>Early Access</t>
+  </si>
+  <si>
+    <t>DC Universe Online</t>
+  </si>
+  <si>
+    <t>Dead Island</t>
+  </si>
+  <si>
+    <t>Dead Island: Epidemic</t>
+  </si>
+  <si>
+    <t>Dishonored</t>
+  </si>
+  <si>
+    <t>Don't Starve</t>
+  </si>
+  <si>
+    <t>Dota 2</t>
+  </si>
+  <si>
+    <t>Dungeon Defenders</t>
+  </si>
+  <si>
+    <t>Empire: Total War</t>
+  </si>
+  <si>
+    <t>Euro Truck Simulator 2</t>
+  </si>
+  <si>
+    <t>Fallout: New Vegas</t>
+  </si>
+  <si>
+    <t>Far Cry 3</t>
+  </si>
+  <si>
+    <t>FTL: Faster Than Light</t>
+  </si>
+  <si>
+    <t>Garry's Mod</t>
+  </si>
+  <si>
+    <t>Goat Simulator</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto IV</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto V</t>
+  </si>
+  <si>
+    <t>Half-Life</t>
+  </si>
+  <si>
+    <t>Half-Life 2</t>
+  </si>
+  <si>
+    <t>Half-Life 2: Deathmatch</t>
+  </si>
+  <si>
+    <t>Half-Life 2: Episode One</t>
+  </si>
+  <si>
+    <t>Half-Life 2: Episode Two</t>
+  </si>
+  <si>
+    <t>Half-Life 2: Lost Coast</t>
+  </si>
+  <si>
+    <t>Heroes &amp; Generals</t>
+  </si>
+  <si>
+    <t>Hitman: Absolution</t>
+  </si>
+  <si>
+    <t>Just Cause 2</t>
+  </si>
+  <si>
+    <t>Killing Floor</t>
+  </si>
   <si>
     <t>Left 4 Dead</t>
   </si>
   <si>
+    <t>Left 4 Dead 2</t>
+  </si>
+  <si>
+    <t>Loadout</t>
+  </si>
+  <si>
+    <t>Mafia II</t>
+  </si>
+  <si>
+    <t>Magicka</t>
+  </si>
+  <si>
+    <t>Metro 2033</t>
+  </si>
+  <si>
+    <t>Mount &amp; Blade: Warband</t>
+  </si>
+  <si>
+    <t>Napoleon: Total War</t>
+  </si>
+  <si>
+    <t>Neverwinter</t>
+  </si>
+  <si>
+    <t>No More Room in Hell</t>
+  </si>
+  <si>
+    <t>Nosgoth</t>
+  </si>
+  <si>
+    <t>Path of Exile</t>
+  </si>
+  <si>
     <t>PAYDAY 2</t>
   </si>
   <si>
+    <t>PAYDAY The Heist</t>
+  </si>
+  <si>
+    <t>PlanetSide 2</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Portal 2</t>
+  </si>
+  <si>
+    <t>Robocraft</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Saints Row: The Third</t>
+  </si>
+  <si>
+    <t>Saints Row IV</t>
+  </si>
+  <si>
+    <t>Sid Meier's Civilization V</t>
+  </si>
+  <si>
+    <t>Sniper Elite V2</t>
+  </si>
+  <si>
+    <t>Starbound</t>
+  </si>
+  <si>
+    <t>Super Meat Boy</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls V: Skyrim</t>
+  </si>
+  <si>
+    <t>The Walking Dead</t>
+  </si>
+  <si>
+    <t>The Witcher: Enhanced Edition Director's Cut</t>
+  </si>
+  <si>
+    <t>The Witcher 2: Assassins of Kings Enhanced Edition</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tom Clancy's Ghost Recon Phantoms - EU</t>
+  </si>
+  <si>
     <t>Torchlight II</t>
   </si>
   <si>
-    <t>Counter-Strike: Source</t>
-  </si>
-  <si>
-    <t>Mafia II</t>
-  </si>
-  <si>
-    <t>Super Meat Boy</t>
-  </si>
-  <si>
-    <t>Age of Empires II HD</t>
-  </si>
-  <si>
-    <t>Dead Island</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Bastion</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Grand Theft Auto V</t>
-  </si>
-  <si>
-    <t>Counter-Strike</t>
-  </si>
-  <si>
-    <t>Half-Life 2</t>
-  </si>
-  <si>
-    <t>Day of Defeat: Source</t>
-  </si>
-  <si>
-    <t>Mount &amp; Blade: Warband</t>
-  </si>
-  <si>
-    <t>Borderlands</t>
-  </si>
-  <si>
-    <t>Chivalry: Medieval Warfare</t>
-  </si>
-  <si>
-    <t>Day of Defeat</t>
-  </si>
-  <si>
-    <t>Saints Row: The Third</t>
-  </si>
-  <si>
-    <t>Killing Floor</t>
-  </si>
-  <si>
-    <t>The Elder Scrolls V: Skyrim</t>
-  </si>
-  <si>
-    <t>Portal 2</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>Euro Truck Simulator 2</t>
-  </si>
-  <si>
-    <t>Goat Simulator</t>
-  </si>
-  <si>
-    <t>Fallout: New Vegas</t>
-  </si>
-  <si>
-    <t>Left 4 Dead 2</t>
-  </si>
-  <si>
-    <t>Dungeon Defenders</t>
-  </si>
-  <si>
-    <t>Sniper Elite V2</t>
-  </si>
-  <si>
-    <t>Metro 2033</t>
-  </si>
-  <si>
-    <t>Magicka</t>
-  </si>
-  <si>
-    <t>Counter-Strike: Global Offensive</t>
-  </si>
-  <si>
-    <t>Dishonored</t>
-  </si>
-  <si>
-    <t>Arma 3</t>
-  </si>
-  <si>
-    <t>Just Cause 2</t>
-  </si>
-  <si>
-    <t>BioShock Infinite</t>
-  </si>
-  <si>
-    <t>Half-Life 2: Episode One</t>
+    <t>Total War: ROME II - Emperor Edition</t>
+  </si>
+  <si>
+    <t>Total War: SHOGUN 2</t>
+  </si>
+  <si>
+    <t>Unturned</t>
+  </si>
+  <si>
+    <t>Warface</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer 40000: Dawn of War II</t>
+  </si>
+  <si>
+    <t>War Thunder</t>
   </si>
   <si>
     <t>XCOM: Enemy Unknown</t>
-  </si>
-  <si>
-    <t>Half-Life 2: Episode Two</t>
-  </si>
-  <si>
-    <t>Arma 2: Operation Arrowhead</t>
-  </si>
-  <si>
-    <t>Borderlands 2</t>
-  </si>
-  <si>
-    <t>Half-Life</t>
-  </si>
-  <si>
-    <t>Saints Row IV</t>
-  </si>
-  <si>
-    <t>The Witcher 2: Assassins of Kings Enhanced Edition</t>
-  </si>
-  <si>
-    <t>Grand Theft Auto IV</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>RPG</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Casual</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> price</t>
-  </si>
-  <si>
-    <t>genres</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> metacritic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> release</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> likes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> achievements</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> linux</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>Call of Duty: Modern Warfare 2</t>
-  </si>
-  <si>
-    <t>Call of Duty: Black Ops II</t>
-  </si>
-  <si>
-    <t>Call of Duty: Black Ops</t>
-  </si>
-  <si>
-    <t>Sid Meiers Civilization V</t>
-  </si>
-  <si>
-    <t>Warhammer 40000: Dawn of War II</t>
-  </si>
-  <si>
-    <t>Empire: Total War</t>
-  </si>
-  <si>
-    <t>DARK SOULS: Prepare To Die Edition</t>
-  </si>
-  <si>
-    <t>PAYDAY The Heist</t>
-  </si>
-  <si>
-    <t>Hitman: Absolution</t>
-  </si>
-  <si>
-    <t>Napoleon: Total War</t>
-  </si>
-  <si>
-    <t>Total War: ROME II - Emperor Edition</t>
-  </si>
-  <si>
-    <t>BioShock</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>mac</t>
-  </si>
-  <si>
-    <t>owners</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> players_forever</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> players_2weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> average_forever</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> average_2weeks</t>
-  </si>
-  <si>
-    <t>median_forever</t>
-  </si>
-  <si>
-    <t>median_2weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d/mm/yy;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,16 +531,196 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -318,21 +728,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -610,362 +1206,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>83</v>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>1999</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
-        <v>41290</v>
+        <v>41373</v>
       </c>
       <c r="I2">
-        <v>34035</v>
+        <v>14620</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N2">
-        <v>1804507</v>
+        <v>2154170</v>
       </c>
       <c r="O2">
-        <v>1621016</v>
+        <v>1934800</v>
       </c>
       <c r="P2">
-        <v>351137</v>
+        <v>150769</v>
       </c>
       <c r="Q2">
-        <v>2647</v>
+        <v>1801</v>
       </c>
       <c r="R2">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="S2">
-        <v>812</v>
+        <v>453</v>
       </c>
       <c r="T2">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>1499</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2">
-        <v>39862</v>
+        <v>40378</v>
       </c>
       <c r="I3">
-        <v>2558</v>
+        <v>10199</v>
       </c>
       <c r="J3">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N3">
-        <v>2245915</v>
+        <v>4256211</v>
       </c>
       <c r="O3">
-        <v>1802849</v>
+        <v>4256211</v>
       </c>
       <c r="P3">
-        <v>25239</v>
+        <v>27131</v>
       </c>
       <c r="Q3">
-        <v>1836</v>
+        <v>337</v>
       </c>
       <c r="R3">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="S3">
-        <v>769</v>
+        <v>100</v>
       </c>
       <c r="T3">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>2499</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>9.99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2">
-        <v>40128</v>
+        <v>39993</v>
       </c>
       <c r="I4">
-        <v>14361</v>
+        <v>1687</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N4">
-        <v>4521860</v>
+        <v>2562098</v>
       </c>
       <c r="O4">
-        <v>4100532</v>
+        <v>2104366</v>
       </c>
       <c r="P4">
-        <v>67243</v>
+        <v>52517</v>
       </c>
       <c r="Q4">
-        <v>1464</v>
+        <v>276</v>
       </c>
       <c r="R4">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="S4">
-        <v>645</v>
+        <v>26</v>
       </c>
       <c r="T4">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>1499</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>14.99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2">
-        <v>40771</v>
+        <v>40358</v>
       </c>
       <c r="I5">
-        <v>14825</v>
+        <v>10399</v>
       </c>
       <c r="J5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N5">
-        <v>1952625</v>
+        <v>3565931</v>
       </c>
       <c r="O5">
-        <v>1528166</v>
+        <v>3175444</v>
       </c>
       <c r="P5">
-        <v>16028</v>
+        <v>193209</v>
       </c>
       <c r="Q5">
-        <v>364</v>
+        <v>2526</v>
       </c>
       <c r="R5">
-        <v>251</v>
+        <v>658</v>
       </c>
       <c r="S5">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T5">
-        <v>54</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>2499</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>44.99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2">
-        <v>40128</v>
+        <v>41529</v>
       </c>
       <c r="I6">
-        <v>14361</v>
+        <v>37669</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N6">
-        <v>4521860</v>
+        <v>1858640</v>
       </c>
       <c r="O6">
-        <v>3977100</v>
+        <v>1734808</v>
       </c>
       <c r="P6">
-        <v>135407</v>
+        <v>367038</v>
       </c>
       <c r="Q6">
-        <v>9521</v>
+        <v>7018</v>
       </c>
       <c r="R6">
-        <v>212</v>
+        <v>911</v>
       </c>
       <c r="S6">
-        <v>3274</v>
+        <v>1788</v>
       </c>
       <c r="T6">
-        <v>56</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -973,340 +1583,343 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>999</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>14.99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2">
-        <v>40252</v>
+        <v>40771</v>
       </c>
       <c r="I7">
-        <v>12454</v>
+        <v>14859</v>
       </c>
       <c r="J7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N7">
-        <v>4522044</v>
+        <v>1941389</v>
       </c>
       <c r="O7">
-        <v>2818310</v>
+        <v>1541987</v>
       </c>
       <c r="P7">
-        <v>35187</v>
+        <v>18216</v>
       </c>
       <c r="Q7">
-        <v>442</v>
+        <v>358</v>
       </c>
       <c r="R7">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="S7">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="T7">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>5999</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2">
-        <v>41225</v>
+        <v>39315</v>
       </c>
       <c r="I8">
-        <v>15167</v>
+        <v>10217</v>
       </c>
       <c r="J8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N8">
-        <v>2372295</v>
+        <v>2648335</v>
       </c>
       <c r="O8">
-        <v>2072926</v>
+        <v>1772598</v>
       </c>
       <c r="P8">
-        <v>233784</v>
+        <v>37014</v>
       </c>
       <c r="Q8">
-        <v>5352</v>
+        <v>420</v>
       </c>
       <c r="R8">
-        <v>322</v>
+        <v>110</v>
       </c>
       <c r="S8">
-        <v>1426</v>
+        <v>171</v>
       </c>
       <c r="T8">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>999</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>29.99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
       <c r="G9">
+        <v>94</v>
+      </c>
+      <c r="H9" s="2">
+        <v>41358</v>
+      </c>
+      <c r="I9">
+        <v>40362</v>
+      </c>
+      <c r="J9">
         <v>80</v>
       </c>
-      <c r="H9" s="2">
-        <v>40371</v>
-      </c>
-      <c r="I9">
-        <v>4508</v>
-      </c>
-      <c r="J9">
-        <v>54</v>
-      </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N9">
-        <v>5900064</v>
+        <v>3326212</v>
       </c>
       <c r="O9">
-        <v>2695246</v>
+        <v>2596011</v>
       </c>
       <c r="P9">
-        <v>47899</v>
+        <v>72477</v>
       </c>
       <c r="Q9">
-        <v>1777</v>
+        <v>892</v>
       </c>
       <c r="R9">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="S9">
-        <v>96</v>
+        <v>668</v>
       </c>
       <c r="T9">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>1199</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>81</v>
       </c>
       <c r="H10" s="2">
-        <v>40834</v>
+        <v>40112</v>
       </c>
       <c r="I10">
-        <v>8158</v>
+        <v>10266</v>
       </c>
       <c r="J10">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N10">
-        <v>1814455</v>
+        <v>2271801</v>
       </c>
       <c r="O10">
-        <v>1523007</v>
+        <v>2017742</v>
       </c>
       <c r="P10">
-        <v>30766</v>
+        <v>37208</v>
       </c>
       <c r="Q10">
-        <v>2658</v>
+        <v>1972</v>
       </c>
       <c r="R10">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="S10">
-        <v>740</v>
+        <v>900</v>
       </c>
       <c r="T10">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>999</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>29.99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2">
-        <v>38307</v>
+        <v>41172</v>
       </c>
       <c r="I11">
-        <v>23319</v>
+        <v>60837</v>
       </c>
       <c r="J11">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N11">
-        <v>8766273</v>
+        <v>4950948</v>
       </c>
       <c r="O11">
-        <v>4904500</v>
+        <v>4500192</v>
       </c>
       <c r="P11">
-        <v>77560</v>
+        <v>271112</v>
       </c>
       <c r="Q11">
-        <v>707</v>
+        <v>3711</v>
       </c>
       <c r="R11">
-        <v>160</v>
+        <v>378</v>
       </c>
       <c r="S11">
-        <v>288</v>
+        <v>1571</v>
       </c>
       <c r="T11">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>1499</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>39.99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2">
-        <v>41193</v>
+        <v>40490</v>
       </c>
       <c r="I12">
-        <v>16278</v>
+        <v>7117</v>
       </c>
       <c r="J12">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N12">
-        <v>1941388</v>
+        <v>3224085</v>
       </c>
       <c r="O12">
-        <v>1656756</v>
+        <v>2733796</v>
       </c>
       <c r="P12">
-        <v>39425</v>
+        <v>65889</v>
       </c>
       <c r="Q12">
-        <v>1001</v>
+        <v>4967</v>
       </c>
       <c r="R12">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="S12">
-        <v>626</v>
+        <v>1411</v>
       </c>
       <c r="T12">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>5999</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>59.99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
       <c r="G13">
         <v>74</v>
@@ -1315,1584 +1928,1620 @@
         <v>41225</v>
       </c>
       <c r="I13">
-        <v>15167</v>
+        <v>15285</v>
       </c>
       <c r="J13">
         <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N13">
-        <v>2372295</v>
+        <v>2375091</v>
       </c>
       <c r="O13">
-        <v>1992603</v>
+        <v>1987898</v>
       </c>
       <c r="P13">
-        <v>62085</v>
+        <v>61819</v>
       </c>
       <c r="Q13">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="R13">
         <v>87</v>
       </c>
       <c r="S13">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="T13">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14">
-        <v>2999</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>24.99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>86</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40128</v>
+      </c>
+      <c r="I14">
+        <v>14447</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14">
+        <v>4565500</v>
+      </c>
+      <c r="O14">
+        <v>4024438</v>
+      </c>
+      <c r="P14">
+        <v>149412</v>
+      </c>
+      <c r="Q14">
+        <v>9549</v>
+      </c>
+      <c r="R14">
+        <v>211</v>
+      </c>
+      <c r="S14">
+        <v>3197</v>
+      </c>
+      <c r="T14">
         <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14">
-        <v>89</v>
-      </c>
-      <c r="H14" s="2">
-        <v>41172</v>
-      </c>
-      <c r="I14">
-        <v>60640</v>
-      </c>
-      <c r="J14">
-        <v>69</v>
-      </c>
-      <c r="K14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14">
-        <v>4936924</v>
-      </c>
-      <c r="O14">
-        <v>4492383</v>
-      </c>
-      <c r="P14">
-        <v>268051</v>
-      </c>
-      <c r="Q14">
-        <v>3670</v>
-      </c>
-      <c r="R14">
-        <v>420</v>
-      </c>
-      <c r="S14">
-        <v>1561</v>
-      </c>
-      <c r="T14">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>1999</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>39.99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
       <c r="G15">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H15" s="2">
-        <v>41508</v>
+        <v>40854</v>
       </c>
       <c r="I15">
-        <v>29580</v>
+        <v>13228</v>
       </c>
       <c r="J15">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N15">
-        <v>2109587</v>
+        <v>2961693</v>
       </c>
       <c r="O15">
-        <v>1790690</v>
+        <v>2717712</v>
       </c>
       <c r="P15">
-        <v>102615</v>
+        <v>76741</v>
       </c>
       <c r="Q15">
-        <v>1228</v>
+        <v>1562</v>
       </c>
       <c r="R15">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="S15">
-        <v>875</v>
+        <v>577</v>
       </c>
       <c r="T15">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>1399</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>11.99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
       </c>
       <c r="G16">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H16" s="2">
-        <v>40512</v>
+        <v>41178</v>
       </c>
       <c r="I16">
-        <v>13006</v>
+        <v>20456</v>
       </c>
       <c r="J16">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N16">
-        <v>2027606</v>
+        <v>2177619</v>
       </c>
       <c r="O16">
-        <v>1714972</v>
+        <v>1877438</v>
       </c>
       <c r="P16">
-        <v>47899</v>
+        <v>58912</v>
       </c>
       <c r="Q16">
-        <v>336</v>
+        <v>503</v>
       </c>
       <c r="R16">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="S16">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="T16">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B17">
-        <v>1499</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>22.99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
       </c>
       <c r="G17">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H17" s="2">
-        <v>40260</v>
+        <v>41198</v>
       </c>
       <c r="I17">
-        <v>20677</v>
+        <v>27262</v>
       </c>
       <c r="J17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N17">
-        <v>3383519</v>
+        <v>8642067</v>
       </c>
       <c r="O17">
-        <v>2667612</v>
+        <v>2490008</v>
       </c>
       <c r="P17">
-        <v>84929</v>
+        <v>271887</v>
       </c>
       <c r="Q17">
-        <v>1004</v>
+        <v>1086</v>
       </c>
       <c r="R17">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="S17">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="T17">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B18">
-        <v>1999</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>9.99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" s="2">
-        <v>41337</v>
+        <v>36831</v>
       </c>
       <c r="I18">
-        <v>35856</v>
+        <v>44131</v>
       </c>
       <c r="J18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18">
-        <v>3054858</v>
+        <v>23</v>
+      </c>
+      <c r="N18" s="1">
+        <v>11282456</v>
       </c>
       <c r="O18">
-        <v>2498675</v>
+        <v>8053527</v>
       </c>
       <c r="P18">
-        <v>80876</v>
+        <v>463158</v>
       </c>
       <c r="Q18">
-        <v>944</v>
+        <v>11110</v>
       </c>
       <c r="R18">
-        <v>208</v>
+        <v>522</v>
       </c>
       <c r="S18">
-        <v>645</v>
+        <v>535</v>
       </c>
       <c r="T18">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>999</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>9.99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
       </c>
       <c r="G19">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H19" s="2">
-        <v>40568</v>
+        <v>38047</v>
       </c>
       <c r="I19">
-        <v>13936</v>
+        <v>4206</v>
       </c>
       <c r="J19">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N19">
-        <v>3301722</v>
+        <v>8765705</v>
       </c>
       <c r="O19">
-        <v>2768016</v>
+        <v>3635501</v>
       </c>
       <c r="P19">
-        <v>88429</v>
+        <v>63757</v>
       </c>
       <c r="Q19">
-        <v>636</v>
+        <v>2147</v>
       </c>
       <c r="R19">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="S19">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="T19">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B20">
-        <v>1899</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>13.99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H20" s="2">
-        <v>41172</v>
+        <v>41142</v>
       </c>
       <c r="I20">
-        <v>19114</v>
+        <v>561137</v>
       </c>
       <c r="J20">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20">
-        <v>2846681</v>
-      </c>
-      <c r="O20">
-        <v>2562418</v>
+        <v>23</v>
+      </c>
+      <c r="N20" s="1">
+        <v>13347289</v>
+      </c>
+      <c r="O20" s="1">
+        <v>12865140</v>
       </c>
       <c r="P20">
-        <v>73875</v>
+        <v>6086170</v>
       </c>
       <c r="Q20">
-        <v>1512</v>
+        <v>10774</v>
       </c>
       <c r="R20">
-        <v>261</v>
+        <v>1219</v>
       </c>
       <c r="S20">
-        <v>698</v>
+        <v>3019</v>
       </c>
       <c r="T20">
-        <v>78</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>1999</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H21" s="2">
-        <v>39875</v>
+        <v>38292</v>
       </c>
       <c r="I21">
-        <v>6960</v>
+        <v>39043</v>
       </c>
       <c r="J21">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21">
-        <v>3117863</v>
-      </c>
-      <c r="O21">
-        <v>2769121</v>
+        <v>23</v>
+      </c>
+      <c r="N21" s="1">
+        <v>13663555</v>
+      </c>
+      <c r="O21" s="1">
+        <v>10371062</v>
       </c>
       <c r="P21">
-        <v>129328</v>
+        <v>514900</v>
       </c>
       <c r="Q21">
-        <v>6205</v>
+        <v>8192</v>
       </c>
       <c r="R21">
-        <v>615</v>
+        <v>299</v>
       </c>
       <c r="S21">
-        <v>1431</v>
+        <v>775</v>
       </c>
       <c r="T21">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="H22" s="2">
+        <v>41919</v>
+      </c>
+      <c r="I22">
+        <v>13315</v>
+      </c>
+      <c r="J22">
         <v>65</v>
       </c>
-      <c r="B22">
-        <v>3999</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22">
-        <v>81</v>
-      </c>
-      <c r="H22" s="2">
-        <v>40490</v>
-      </c>
-      <c r="I22">
-        <v>7072</v>
-      </c>
-      <c r="J22">
-        <v>68</v>
-      </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N22">
-        <v>3190817</v>
+        <v>3393651</v>
       </c>
       <c r="O22">
-        <v>2707036</v>
+        <v>1937125</v>
       </c>
       <c r="P22">
-        <v>61900</v>
+        <v>121894</v>
       </c>
       <c r="Q22">
-        <v>4803</v>
+        <v>519</v>
       </c>
       <c r="R22">
-        <v>262</v>
+        <v>380</v>
       </c>
       <c r="S22">
-        <v>1378</v>
+        <v>34</v>
       </c>
       <c r="T22">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>1499</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
       </c>
       <c r="G23">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H23" s="2">
-        <v>40857</v>
+        <v>41144</v>
       </c>
       <c r="I23">
-        <v>126063</v>
+        <v>30660</v>
       </c>
       <c r="J23">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N23">
-        <v>8875336</v>
+        <v>1908251</v>
       </c>
       <c r="O23">
-        <v>8451981</v>
+        <v>1670083</v>
       </c>
       <c r="P23">
-        <v>1037384</v>
+        <v>104065</v>
       </c>
       <c r="Q23">
-        <v>6661</v>
+        <v>2414</v>
       </c>
       <c r="R23">
-        <v>550</v>
+        <v>429</v>
       </c>
       <c r="S23">
-        <v>2853</v>
+        <v>438</v>
       </c>
       <c r="T23">
-        <v>139</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>4.99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>79</v>
+      </c>
+      <c r="H24" s="2">
+        <v>37742</v>
+      </c>
+      <c r="I24">
+        <v>1415</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>7139031</v>
+      </c>
+      <c r="O24">
+        <v>1608651</v>
+      </c>
+      <c r="P24">
+        <v>13759</v>
+      </c>
+      <c r="Q24">
+        <v>890</v>
+      </c>
+      <c r="R24">
+        <v>198</v>
+      </c>
+      <c r="S24">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>999</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>84</v>
-      </c>
-      <c r="H24" s="2">
-        <v>40472</v>
-      </c>
-      <c r="I24">
-        <v>24925</v>
-      </c>
-      <c r="J24">
-        <v>75</v>
-      </c>
-      <c r="K24" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24">
-        <v>3370992</v>
-      </c>
-      <c r="O24">
-        <v>2952059</v>
-      </c>
-      <c r="P24">
-        <v>183675</v>
-      </c>
-      <c r="Q24">
-        <v>3764</v>
-      </c>
-      <c r="R24">
-        <v>447</v>
-      </c>
-      <c r="S24">
-        <v>1364</v>
-      </c>
       <c r="T24">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>2999</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>9.99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
       </c>
       <c r="G25">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2">
-        <v>40416</v>
+        <v>40371</v>
       </c>
       <c r="I25">
-        <v>10608</v>
+        <v>4540</v>
       </c>
       <c r="J25">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>1959626</v>
+        <v>5815445</v>
       </c>
       <c r="O25">
-        <v>1518770</v>
+        <v>2650660</v>
       </c>
       <c r="P25">
-        <v>34451</v>
+        <v>46316</v>
       </c>
       <c r="Q25">
-        <v>1773</v>
+        <v>1847</v>
       </c>
       <c r="R25">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="S25">
-        <v>921</v>
+        <v>98</v>
       </c>
       <c r="T25">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B26">
-        <v>1999</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>27.99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
       </c>
       <c r="G26">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H26" s="2">
-        <v>38292</v>
+        <v>41624</v>
       </c>
       <c r="I26">
-        <v>38832</v>
+        <v>121574</v>
       </c>
       <c r="J26">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>13638902</v>
+        <v>3189784</v>
       </c>
       <c r="O26">
-        <v>10382315</v>
+        <v>3159359</v>
       </c>
       <c r="P26">
-        <v>513994</v>
+        <v>338551</v>
       </c>
       <c r="Q26">
-        <v>8121</v>
+        <v>3476</v>
       </c>
       <c r="R26">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="S26">
-        <v>770</v>
+        <v>1123</v>
       </c>
       <c r="T26">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B27">
-        <v>1999</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
       </c>
       <c r="G27">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H27" s="2">
-        <v>40268</v>
+        <v>40849</v>
       </c>
       <c r="I27">
-        <v>25981</v>
+        <v>6651</v>
       </c>
       <c r="J27">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N27">
-        <v>1776873</v>
+        <v>2022199</v>
       </c>
       <c r="O27">
-        <v>1603146</v>
+        <v>2022199</v>
       </c>
       <c r="P27">
-        <v>205045</v>
+        <v>38564</v>
       </c>
       <c r="Q27">
-        <v>5772</v>
+        <v>1434</v>
       </c>
       <c r="R27">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="S27">
-        <v>1901</v>
+        <v>353</v>
       </c>
       <c r="T27">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>1999</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
       </c>
       <c r="G28">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" s="2">
-        <v>41015</v>
+        <v>40792</v>
       </c>
       <c r="I28">
-        <v>17162</v>
+        <v>16246</v>
       </c>
       <c r="J28">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>2798328</v>
+      </c>
+      <c r="O28">
+        <v>2405128</v>
+      </c>
+      <c r="P28">
+        <v>61044</v>
+      </c>
+      <c r="Q28">
+        <v>1113</v>
+      </c>
+      <c r="R28">
+        <v>206</v>
+      </c>
+      <c r="S28">
+        <v>472</v>
+      </c>
+      <c r="T28">
         <v>61</v>
-      </c>
-      <c r="L28" t="s">
-        <v>61</v>
-      </c>
-      <c r="M28" t="s">
-        <v>61</v>
-      </c>
-      <c r="N28">
-        <v>3047673</v>
-      </c>
-      <c r="O28">
-        <v>2185305</v>
-      </c>
-      <c r="P28">
-        <v>316318</v>
-      </c>
-      <c r="Q28">
-        <v>883</v>
-      </c>
-      <c r="R28">
-        <v>351</v>
-      </c>
-      <c r="S28">
-        <v>286</v>
-      </c>
-      <c r="T28">
-        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>1999</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
       </c>
       <c r="G29">
         <v>85</v>
       </c>
       <c r="H29" s="2">
-        <v>41144</v>
+        <v>41963</v>
       </c>
       <c r="I29">
-        <v>30513</v>
+        <v>18285</v>
       </c>
       <c r="J29">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N29">
-        <v>1897910</v>
+        <v>4634101</v>
       </c>
       <c r="O29">
-        <v>1667257</v>
+        <v>2083243</v>
       </c>
       <c r="P29">
-        <v>100035</v>
+        <v>53680</v>
       </c>
       <c r="Q29">
-        <v>2533</v>
+        <v>240</v>
       </c>
       <c r="R29">
-        <v>446</v>
+        <v>129</v>
       </c>
       <c r="S29">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="T29">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>499</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>14.99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G30">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H30" s="2">
-        <v>40814</v>
+        <v>41193</v>
       </c>
       <c r="I30">
-        <v>33763</v>
+        <v>16337</v>
       </c>
       <c r="J30">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N30">
-        <v>2628924</v>
+        <v>1972783</v>
       </c>
       <c r="O30">
-        <v>2324949</v>
+        <v>1686942</v>
       </c>
       <c r="P30">
-        <v>124169</v>
+        <v>43603</v>
       </c>
       <c r="Q30">
-        <v>1924</v>
+        <v>1023</v>
       </c>
       <c r="R30">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="S30">
-        <v>400</v>
+        <v>615</v>
       </c>
       <c r="T30">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>999</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>14.99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
       </c>
       <c r="G31">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H31" s="2">
-        <v>39365</v>
+        <v>41387</v>
       </c>
       <c r="I31">
-        <v>17132</v>
+        <v>31595</v>
       </c>
       <c r="J31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N31">
-        <v>8254305</v>
+        <v>2611902</v>
       </c>
       <c r="O31">
-        <v>5871693</v>
+        <v>2255716</v>
       </c>
       <c r="P31">
-        <v>53242</v>
+        <v>135847</v>
       </c>
       <c r="Q31">
-        <v>328</v>
+        <v>1139</v>
       </c>
       <c r="R31">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="S31">
-        <v>176</v>
+        <v>359</v>
       </c>
       <c r="T31">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B32">
-        <v>1999</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
       </c>
       <c r="G32">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H32" s="2">
-        <v>40112</v>
+        <v>41464</v>
       </c>
       <c r="I32">
-        <v>10202</v>
+        <v>380807</v>
       </c>
       <c r="J32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32">
-        <v>2299526</v>
-      </c>
-      <c r="O32">
-        <v>2033685</v>
+        <v>23</v>
+      </c>
+      <c r="N32" s="1">
+        <v>50699351</v>
+      </c>
+      <c r="O32" s="1">
+        <v>50699351</v>
       </c>
       <c r="P32">
-        <v>43478</v>
+        <v>8866088</v>
       </c>
       <c r="Q32">
-        <v>1950</v>
+        <v>11416</v>
       </c>
       <c r="R32">
-        <v>356</v>
+        <v>1426</v>
       </c>
       <c r="S32">
-        <v>927</v>
+        <v>362</v>
       </c>
       <c r="T32">
-        <v>109</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>1999</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>47</v>
+        <v>11.99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
       </c>
       <c r="G33">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H33" s="2">
-        <v>41499</v>
+        <v>40834</v>
       </c>
       <c r="I33">
-        <v>112794</v>
+        <v>8187</v>
       </c>
       <c r="J33">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N33">
-        <v>4312209</v>
+        <v>1798953</v>
       </c>
       <c r="O33">
-        <v>4022235</v>
+        <v>1507299</v>
       </c>
       <c r="P33">
-        <v>391483</v>
+        <v>25386</v>
       </c>
       <c r="Q33">
-        <v>2962</v>
+        <v>2687</v>
       </c>
       <c r="R33">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="S33">
-        <v>1076</v>
+        <v>720</v>
       </c>
       <c r="T33">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>4499</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>51</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
       </c>
       <c r="G34">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H34" s="2">
-        <v>41529</v>
+        <v>39875</v>
       </c>
       <c r="I34">
-        <v>37390</v>
+        <v>7006</v>
       </c>
       <c r="J34">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N34">
-        <v>1877829</v>
+        <v>3096184</v>
       </c>
       <c r="O34">
-        <v>1687707</v>
+        <v>2761508</v>
       </c>
       <c r="P34">
-        <v>361454</v>
+        <v>116662</v>
       </c>
       <c r="Q34">
-        <v>7068</v>
+        <v>5921</v>
       </c>
       <c r="R34">
-        <v>973</v>
+        <v>495</v>
       </c>
       <c r="S34">
-        <v>1916</v>
+        <v>1411</v>
       </c>
       <c r="T34">
-        <v>281</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B35">
-        <v>999</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
       </c>
       <c r="G35">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" s="2">
-        <v>36831</v>
+        <v>41290</v>
       </c>
       <c r="I35">
-        <v>43866</v>
+        <v>34328</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L35" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N35">
-        <v>11206733</v>
+        <v>1777636</v>
       </c>
       <c r="O35">
-        <v>7965621</v>
+        <v>1580939</v>
       </c>
       <c r="P35">
-        <v>470885</v>
+        <v>330606</v>
       </c>
       <c r="Q35">
-        <v>11094</v>
+        <v>2630</v>
       </c>
       <c r="R35">
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="S35">
-        <v>545</v>
+        <v>831</v>
       </c>
       <c r="T35">
-        <v>79</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B36">
-        <v>1499</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>9.99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G36">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H36" s="2">
-        <v>40358</v>
+        <v>40472</v>
       </c>
       <c r="I36">
-        <v>10324</v>
+        <v>25506</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>3500872</v>
+        <v>3404116</v>
       </c>
       <c r="O36">
-        <v>3108099</v>
+        <v>2980685</v>
       </c>
       <c r="P36">
-        <v>191965</v>
+        <v>249795</v>
       </c>
       <c r="Q36">
-        <v>2658</v>
+        <v>3522</v>
       </c>
       <c r="R36">
-        <v>693</v>
+        <v>406</v>
       </c>
       <c r="S36">
-        <v>181</v>
+        <v>1294</v>
       </c>
       <c r="T36">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B37">
-        <v>799</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
       </c>
       <c r="G37">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H37" s="2">
-        <v>39365</v>
+        <v>41241</v>
       </c>
       <c r="I37">
-        <v>3632</v>
+        <v>26664</v>
       </c>
       <c r="J37">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M37" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N37">
-        <v>4824914</v>
+        <v>2484001</v>
       </c>
       <c r="O37">
-        <v>1961837</v>
+        <v>2188083</v>
       </c>
       <c r="P37">
-        <v>21002</v>
+        <v>75384</v>
       </c>
       <c r="Q37">
-        <v>458</v>
+        <v>1675</v>
       </c>
       <c r="R37">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="S37">
-        <v>304</v>
+        <v>978</v>
       </c>
       <c r="T37">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B38">
-        <v>1999</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>9.99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
       </c>
       <c r="G38">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H38" s="2">
-        <v>39784</v>
+        <v>41166</v>
       </c>
       <c r="I38">
-        <v>23827</v>
+        <v>24639</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N38">
-        <v>3564799</v>
+        <v>2209207</v>
       </c>
       <c r="O38">
-        <v>2988536</v>
+        <v>1923560</v>
       </c>
       <c r="P38">
-        <v>102246</v>
+        <v>103290</v>
       </c>
       <c r="Q38">
-        <v>1354</v>
+        <v>1428</v>
       </c>
       <c r="R38">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="S38">
-        <v>451</v>
+        <v>591</v>
       </c>
       <c r="T38">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B39">
-        <v>1999</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>9.99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
       </c>
       <c r="G39">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H39" s="2">
-        <v>41193</v>
+        <v>39050</v>
       </c>
       <c r="I39">
-        <v>21715</v>
+        <v>147479</v>
       </c>
       <c r="J39">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="K39" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N39">
-        <v>2644768</v>
+        <v>8800006</v>
       </c>
       <c r="O39">
-        <v>2180699</v>
+        <v>8045387</v>
       </c>
       <c r="P39">
-        <v>98009</v>
+        <v>1299556</v>
       </c>
       <c r="Q39">
-        <v>2811</v>
+        <v>5140</v>
       </c>
       <c r="R39">
-        <v>568</v>
+        <v>467</v>
       </c>
       <c r="S39">
-        <v>1367</v>
+        <v>1006</v>
       </c>
       <c r="T39">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B40">
-        <v>3999</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>9.99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
       </c>
       <c r="G40">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H40" s="2">
-        <v>40490</v>
+        <v>41730</v>
       </c>
       <c r="I40">
-        <v>7072</v>
+        <v>28406</v>
       </c>
       <c r="J40">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N40">
-        <v>3190817</v>
+        <v>1726282</v>
       </c>
       <c r="O40">
-        <v>3049515</v>
+        <v>1629774</v>
       </c>
       <c r="P40">
-        <v>62453</v>
+        <v>139723</v>
       </c>
       <c r="Q40">
-        <v>1404</v>
+        <v>351</v>
       </c>
       <c r="R40">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="S40">
-        <v>579</v>
+        <v>139</v>
       </c>
       <c r="T40">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B41">
-        <v>1499</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
       </c>
       <c r="G41">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H41" s="2">
-        <v>40836</v>
+        <v>39784</v>
       </c>
       <c r="I41">
-        <v>25448</v>
+        <v>23948</v>
       </c>
       <c r="J41">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M41" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>3836903</v>
+        <v>3519615</v>
       </c>
       <c r="O41">
-        <v>2835443</v>
+        <v>2967507</v>
       </c>
       <c r="P41">
-        <v>62822</v>
+        <v>97670</v>
       </c>
       <c r="Q41">
-        <v>480</v>
+        <v>1397</v>
       </c>
       <c r="R41">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="S41">
-        <v>161</v>
+        <v>455</v>
       </c>
       <c r="T41">
         <v>30</v>
@@ -2900,552 +3549,558 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B42">
-        <v>2999</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>59.99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
       </c>
       <c r="G42">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H42" s="2">
-        <v>41358</v>
+        <v>42107</v>
       </c>
       <c r="I42">
-        <v>40255</v>
+        <v>46865</v>
       </c>
       <c r="J42">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K42" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M42" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>3385730</v>
+        <v>2471598</v>
       </c>
       <c r="O42">
-        <v>2628187</v>
+        <v>2415593</v>
       </c>
       <c r="P42">
-        <v>74612</v>
+        <v>1441217</v>
       </c>
       <c r="Q42">
-        <v>897</v>
+        <v>3767</v>
       </c>
       <c r="R42">
-        <v>179</v>
+        <v>856</v>
       </c>
       <c r="S42">
-        <v>665</v>
+        <v>2739</v>
       </c>
       <c r="T42">
-        <v>70</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B43">
-        <v>1399</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>9.99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
       </c>
       <c r="G43">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H43" s="2">
-        <v>41142</v>
+        <v>36107</v>
       </c>
       <c r="I43">
-        <v>551141</v>
+        <v>7608</v>
       </c>
       <c r="J43">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>13199888</v>
+        <v>5192217</v>
       </c>
       <c r="O43">
-        <v>12716660</v>
+        <v>1850889</v>
       </c>
       <c r="P43">
-        <v>5932304</v>
+        <v>32751</v>
       </c>
       <c r="Q43">
-        <v>10592</v>
+        <v>412</v>
       </c>
       <c r="R43">
-        <v>1155</v>
+        <v>113</v>
       </c>
       <c r="S43">
-        <v>2973</v>
+        <v>82</v>
       </c>
       <c r="T43">
-        <v>692</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B44">
-        <v>2999</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>9.99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
       </c>
       <c r="G44">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H44" s="2">
-        <v>40444</v>
+        <v>38307</v>
       </c>
       <c r="I44">
-        <v>56809</v>
+        <v>23443</v>
       </c>
       <c r="J44">
-        <v>287</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L44" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>7363566</v>
+        <v>8764930</v>
       </c>
       <c r="O44">
-        <v>6978163</v>
+        <v>4952305</v>
       </c>
       <c r="P44">
-        <v>748884</v>
+        <v>79841</v>
       </c>
       <c r="Q44">
-        <v>9247</v>
+        <v>699</v>
       </c>
       <c r="R44">
-        <v>855</v>
+        <v>146</v>
       </c>
       <c r="S44">
-        <v>2312</v>
+        <v>289</v>
       </c>
       <c r="T44">
-        <v>378</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B45">
-        <v>1999</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>47</v>
+        <v>4.99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
       </c>
       <c r="G45">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H45" s="2">
-        <v>40792</v>
+        <v>38292</v>
       </c>
       <c r="I45">
-        <v>16161</v>
+        <v>2779</v>
       </c>
       <c r="J45">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>61</v>
-      </c>
-      <c r="N45">
-        <v>2810388</v>
+        <v>23</v>
+      </c>
+      <c r="N45" s="1">
+        <v>11321602</v>
       </c>
       <c r="O45">
-        <v>2417799</v>
+        <v>3360707</v>
       </c>
       <c r="P45">
-        <v>70743</v>
+        <v>21898</v>
       </c>
       <c r="Q45">
-        <v>1127</v>
+        <v>643</v>
       </c>
       <c r="R45">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S45">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="T45">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B46">
-        <v>1999</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>6.99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
       </c>
       <c r="G46">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" s="2">
-        <v>41232</v>
+        <v>38869</v>
       </c>
       <c r="I46">
-        <v>11257</v>
+        <v>2657</v>
       </c>
       <c r="J46">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N46">
-        <v>2194700</v>
+        <v>5425927</v>
       </c>
       <c r="O46">
-        <v>1609410</v>
+        <v>2209594</v>
       </c>
       <c r="P46">
-        <v>45873</v>
+        <v>20929</v>
       </c>
       <c r="Q46">
-        <v>906</v>
+        <v>296</v>
       </c>
       <c r="R46">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="S46">
-        <v>502</v>
+        <v>195</v>
       </c>
       <c r="T46">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B47">
-        <v>1999</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>7.99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
       </c>
       <c r="G47">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" s="2">
-        <v>40133</v>
+        <v>39365</v>
       </c>
       <c r="I47">
-        <v>93085</v>
+        <v>3662</v>
       </c>
       <c r="J47">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N47">
-        <v>11979566</v>
+        <v>4841263</v>
       </c>
       <c r="O47">
-        <v>10230696</v>
+        <v>1959411</v>
       </c>
       <c r="P47">
-        <v>484334</v>
+        <v>20348</v>
       </c>
       <c r="Q47">
-        <v>2358</v>
+        <v>471</v>
       </c>
       <c r="R47">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="S47">
-        <v>579</v>
+        <v>303</v>
       </c>
       <c r="T47">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B48">
-        <v>1399</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
       </c>
       <c r="G48">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H48" s="2">
-        <v>40232</v>
+        <v>38652</v>
       </c>
       <c r="I48">
-        <v>3548</v>
+        <v>2666</v>
       </c>
       <c r="J48">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>61</v>
-      </c>
-      <c r="N48">
-        <v>1851853</v>
+        <v>23</v>
+      </c>
+      <c r="N48" s="1">
+        <v>13400000</v>
       </c>
       <c r="O48">
-        <v>1542167</v>
+        <v>2621398</v>
       </c>
       <c r="P48">
-        <v>66506</v>
+        <v>13178</v>
       </c>
       <c r="Q48">
-        <v>3655</v>
+        <v>53</v>
       </c>
       <c r="R48">
-        <v>437</v>
+        <v>32</v>
       </c>
       <c r="S48">
-        <v>789</v>
+        <v>25</v>
       </c>
       <c r="T48">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B49">
-        <v>5999</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
       </c>
       <c r="G49">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H49" s="2">
-        <v>42107</v>
+        <v>41831</v>
       </c>
       <c r="I49">
-        <v>45535</v>
+        <v>25851</v>
       </c>
       <c r="J49">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N49">
-        <v>2424800</v>
+        <v>6090627</v>
       </c>
       <c r="O49">
-        <v>2364926</v>
+        <v>3931225</v>
       </c>
       <c r="P49">
-        <v>1531113</v>
+        <v>355023</v>
       </c>
       <c r="Q49">
-        <v>3661</v>
+        <v>540</v>
       </c>
       <c r="R49">
-        <v>920</v>
+        <v>283</v>
       </c>
       <c r="S49">
-        <v>2697</v>
+        <v>54</v>
       </c>
       <c r="T49">
-        <v>449</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B50">
-        <v>1999</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>48</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
       </c>
       <c r="G50">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H50" s="2">
-        <v>40651</v>
+        <v>41232</v>
       </c>
       <c r="I50">
-        <v>48070</v>
+        <v>11314</v>
       </c>
       <c r="J50">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>6437824</v>
+        <v>2193122</v>
       </c>
       <c r="O50">
-        <v>5448707</v>
+        <v>1625705</v>
       </c>
       <c r="P50">
-        <v>169305</v>
+        <v>47285</v>
       </c>
       <c r="Q50">
-        <v>989</v>
+        <v>947</v>
       </c>
       <c r="R50">
         <v>181</v>
       </c>
       <c r="S50">
-        <v>610</v>
+        <v>517</v>
       </c>
       <c r="T50">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B51">
-        <v>699</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>14.99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
       </c>
       <c r="G51">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H51" s="2">
-        <v>38869</v>
+        <v>40260</v>
       </c>
       <c r="I51">
-        <v>2637</v>
+        <v>20758</v>
       </c>
       <c r="J51">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M51" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>5421626</v>
+        <v>3378342</v>
       </c>
       <c r="O51">
-        <v>2187515</v>
+        <v>2674690</v>
       </c>
       <c r="P51">
-        <v>20633</v>
+        <v>87206</v>
       </c>
       <c r="Q51">
-        <v>296</v>
+        <v>1015</v>
       </c>
       <c r="R51">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="S51">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="T51">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B52">
-        <v>1799</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>46</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
       </c>
       <c r="G52">
         <v>72</v>
@@ -3454,651 +4109,2463 @@
         <v>39947</v>
       </c>
       <c r="I52">
-        <v>39018</v>
+        <v>39128</v>
       </c>
       <c r="J52">
         <v>285</v>
       </c>
       <c r="K52" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L52" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M52" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>3125785</v>
+        <v>3111687</v>
       </c>
       <c r="O52">
-        <v>2742961</v>
+        <v>2739028</v>
       </c>
       <c r="P52">
-        <v>101325</v>
+        <v>100771</v>
       </c>
       <c r="Q52">
-        <v>2356</v>
+        <v>2533</v>
       </c>
       <c r="R52">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="S52">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="T52">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B53">
-        <v>2299</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>49</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
       </c>
       <c r="G53">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H53" s="2">
-        <v>41198</v>
+        <v>39769</v>
       </c>
       <c r="I53">
-        <v>26817</v>
+        <v>6268</v>
       </c>
       <c r="J53">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="K53" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M53" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>26486732</v>
+        <v>3532986</v>
       </c>
       <c r="O53">
-        <v>2991299</v>
+        <v>2657443</v>
       </c>
       <c r="P53">
-        <v>328109</v>
+        <v>22673</v>
       </c>
       <c r="Q53">
-        <v>906</v>
+        <v>2488</v>
       </c>
       <c r="R53">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="S53">
-        <v>200</v>
+        <v>590</v>
       </c>
       <c r="T53">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B54">
-        <v>5499</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>51</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
       </c>
       <c r="G54">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H54" s="2">
-        <v>41519</v>
+        <v>40133</v>
       </c>
       <c r="I54">
-        <v>22197</v>
+        <v>93383</v>
       </c>
       <c r="J54">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K54" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L54" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M54" t="s">
-        <v>61</v>
-      </c>
-      <c r="N54">
-        <v>1913753</v>
-      </c>
-      <c r="O54">
-        <v>1814271</v>
+        <v>23</v>
+      </c>
+      <c r="N54" s="1">
+        <v>11994635</v>
+      </c>
+      <c r="O54" s="1">
+        <v>10261958</v>
       </c>
       <c r="P54">
-        <v>218309</v>
+        <v>482343</v>
       </c>
       <c r="Q54">
-        <v>6815</v>
+        <v>2360</v>
       </c>
       <c r="R54">
-        <v>679</v>
+        <v>231</v>
       </c>
       <c r="S54">
-        <v>2400</v>
+        <v>577</v>
       </c>
       <c r="T54">
-        <v>222</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B55">
-        <v>1999</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
       </c>
       <c r="G55">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H55" s="2">
-        <v>39315</v>
+        <v>41670</v>
       </c>
       <c r="I55">
-        <v>10161</v>
+        <v>37006</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K55" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M55" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N55">
-        <v>2641820</v>
+        <v>3940333</v>
       </c>
       <c r="O55">
-        <v>1724552</v>
+        <v>2385943</v>
       </c>
       <c r="P55">
-        <v>31503</v>
+        <v>69958</v>
       </c>
       <c r="Q55">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="R55">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="S55">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="T55">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B56">
-        <v>2799</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>29.99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
       </c>
       <c r="G56">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H56" s="2">
-        <v>41032</v>
+        <v>40416</v>
       </c>
       <c r="I56">
-        <v>17653</v>
+        <v>10651</v>
       </c>
       <c r="J56">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="K56" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M56" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N56">
-        <v>3334699</v>
+        <v>1949915</v>
       </c>
       <c r="O56">
-        <v>2363084</v>
+        <v>1505749</v>
       </c>
       <c r="P56">
-        <v>55268</v>
+        <v>39339</v>
       </c>
       <c r="Q56">
-        <v>518</v>
+        <v>1758</v>
       </c>
       <c r="R56">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="S56">
-        <v>159</v>
+        <v>920</v>
       </c>
       <c r="T56">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B57">
-        <v>1499</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>46</v>
+        <v>9.99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
       </c>
       <c r="G57">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H57" s="2">
-        <v>40861</v>
+        <v>40568</v>
       </c>
       <c r="I57">
-        <v>21333</v>
+        <v>14008</v>
       </c>
       <c r="J57">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M57" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N57">
-        <v>3240927</v>
+        <v>3279509</v>
       </c>
       <c r="O57">
-        <v>2589315</v>
+        <v>2758989</v>
       </c>
       <c r="P57">
-        <v>70928</v>
+        <v>93988</v>
       </c>
       <c r="Q57">
-        <v>1588</v>
+        <v>608</v>
       </c>
       <c r="R57">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="S57">
-        <v>968</v>
+        <v>276</v>
       </c>
       <c r="T57">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B58">
-        <v>1999</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>9.99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
       </c>
       <c r="G58">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H58" s="2">
-        <v>39769</v>
+        <v>40252</v>
       </c>
       <c r="I58">
-        <v>6235</v>
+        <v>12525</v>
       </c>
       <c r="J58">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M58" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N58">
-        <v>3572352</v>
+        <v>4559880</v>
       </c>
       <c r="O58">
-        <v>2699852</v>
+        <v>2852202</v>
       </c>
       <c r="P58">
-        <v>27450</v>
+        <v>33138</v>
       </c>
       <c r="Q58">
-        <v>2562</v>
+        <v>430</v>
       </c>
       <c r="R58">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="S58">
-        <v>581</v>
+        <v>153</v>
       </c>
       <c r="T58">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B59">
-        <v>999</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>52</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G59">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H59" s="2">
-        <v>41730</v>
+        <v>40268</v>
       </c>
       <c r="I59">
-        <v>28254</v>
+        <v>26193</v>
       </c>
       <c r="J59">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="L59" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M59" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N59">
-        <v>1720131</v>
+        <v>1752443</v>
       </c>
       <c r="O59">
-        <v>1622490</v>
+        <v>1587528</v>
       </c>
       <c r="P59">
-        <v>154014</v>
+        <v>219758</v>
       </c>
       <c r="Q59">
-        <v>375</v>
+        <v>5858</v>
       </c>
       <c r="R59">
-        <v>98</v>
+        <v>606</v>
       </c>
       <c r="S59">
-        <v>142</v>
+        <v>1937</v>
       </c>
       <c r="T59">
-        <v>30</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B60">
-        <v>999</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>46</v>
+        <v>13.99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
       </c>
       <c r="G60">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H60" s="2">
-        <v>36107</v>
+        <v>40232</v>
       </c>
       <c r="I60">
-        <v>7566</v>
+        <v>3573</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M60" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N60">
-        <v>5192079</v>
+        <v>1821433</v>
       </c>
       <c r="O60">
-        <v>1836746</v>
+        <v>1524352</v>
       </c>
       <c r="P60">
-        <v>31687</v>
+        <v>65307</v>
       </c>
       <c r="Q60">
-        <v>427</v>
+        <v>3813</v>
       </c>
       <c r="R60">
-        <v>117</v>
+        <v>455</v>
       </c>
       <c r="S60">
-        <v>86</v>
+        <v>767</v>
       </c>
       <c r="T60">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B61">
-        <v>499</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" t="s">
+        <v>55</v>
       </c>
       <c r="G61">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H61" s="2">
-        <v>37742</v>
+        <v>41613</v>
       </c>
       <c r="I61">
-        <v>1405</v>
+        <v>13920</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M61" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N61">
-        <v>7140283</v>
+        <v>2835730</v>
       </c>
       <c r="O61">
-        <v>1597988</v>
+        <v>1721049</v>
       </c>
       <c r="P61">
-        <v>13264</v>
+        <v>99221</v>
       </c>
       <c r="Q61">
-        <v>978</v>
+        <v>1563</v>
       </c>
       <c r="R61">
-        <v>265</v>
+        <v>569</v>
       </c>
       <c r="S61">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="T61">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B62">
-        <v>1999</v>
-      </c>
-      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62">
+        <v>90</v>
+      </c>
+      <c r="H62" s="2">
+        <v>41578</v>
+      </c>
+      <c r="I62">
+        <v>31665</v>
+      </c>
+      <c r="J62">
+        <v>92</v>
+      </c>
+      <c r="K62" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62">
+        <v>4018237</v>
+      </c>
+      <c r="O62">
+        <v>2434003</v>
+      </c>
+      <c r="P62">
+        <v>142629</v>
+      </c>
+      <c r="Q62">
+        <v>437</v>
+      </c>
+      <c r="R62">
+        <v>130</v>
+      </c>
+      <c r="S62">
+        <v>107</v>
+      </c>
+      <c r="T62">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63">
+        <v>66</v>
+      </c>
+      <c r="H63" s="2">
+        <v>41724</v>
+      </c>
+      <c r="I63">
+        <v>11039</v>
+      </c>
+      <c r="J63">
+        <v>75</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63">
+        <v>2958786</v>
+      </c>
+      <c r="O63">
+        <v>1632681</v>
+      </c>
+      <c r="P63">
+        <v>101934</v>
+      </c>
+      <c r="Q63">
+        <v>385</v>
+      </c>
+      <c r="R63">
+        <v>157</v>
+      </c>
+      <c r="S63">
+        <v>57</v>
+      </c>
+      <c r="T63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64">
+        <v>86</v>
+      </c>
+      <c r="H64" s="2">
+        <v>41570</v>
+      </c>
+      <c r="I64">
+        <v>22239</v>
+      </c>
+      <c r="J64">
+        <v>66</v>
+      </c>
+      <c r="K64" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64">
+        <v>3294625</v>
+      </c>
+      <c r="O64">
+        <v>2088282</v>
+      </c>
+      <c r="P64">
+        <v>139335</v>
+      </c>
+      <c r="Q64">
+        <v>2589</v>
+      </c>
+      <c r="R64">
+        <v>732</v>
+      </c>
+      <c r="S64">
+        <v>300</v>
+      </c>
+      <c r="T64">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65">
+        <v>79</v>
+      </c>
+      <c r="H65" s="2">
+        <v>41499</v>
+      </c>
+      <c r="I65">
+        <v>113281</v>
+      </c>
+      <c r="J65">
+        <v>324</v>
+      </c>
+      <c r="K65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" t="s">
+        <v>22</v>
+      </c>
+      <c r="M65" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65">
+        <v>4328494</v>
+      </c>
+      <c r="O65">
+        <v>4045367</v>
+      </c>
+      <c r="P65">
+        <v>395525</v>
+      </c>
+      <c r="Q65">
+        <v>2815</v>
+      </c>
+      <c r="R65">
+        <v>388</v>
+      </c>
+      <c r="S65">
+        <v>1052</v>
+      </c>
+      <c r="T65">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66">
+        <v>14.99</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66">
+        <v>76</v>
+      </c>
+      <c r="H66" s="2">
+        <v>40836</v>
+      </c>
+      <c r="I66">
+        <v>25537</v>
+      </c>
+      <c r="J66">
+        <v>56</v>
+      </c>
+      <c r="K66" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66">
+        <v>3857778</v>
+      </c>
+      <c r="O66">
+        <v>2849295</v>
+      </c>
+      <c r="P66">
+        <v>60075</v>
+      </c>
+      <c r="Q66">
+        <v>460</v>
+      </c>
+      <c r="R66">
+        <v>95</v>
+      </c>
+      <c r="S66">
+        <v>160</v>
+      </c>
+      <c r="T66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67">
+        <v>84</v>
+      </c>
+      <c r="H67" s="2">
+        <v>41233</v>
+      </c>
+      <c r="I67">
+        <v>24240</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67">
+        <v>4080831</v>
+      </c>
+      <c r="O67">
+        <v>2582059</v>
+      </c>
+      <c r="P67">
+        <v>162008</v>
+      </c>
+      <c r="Q67">
+        <v>1828</v>
+      </c>
+      <c r="R67">
+        <v>292</v>
+      </c>
+      <c r="S67">
+        <v>269</v>
+      </c>
+      <c r="T67">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68">
+        <v>9.99</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68">
+        <v>90</v>
+      </c>
+      <c r="H68" s="2">
+        <v>39365</v>
+      </c>
+      <c r="I68">
+        <v>17216</v>
+      </c>
+      <c r="J68">
+        <v>15</v>
+      </c>
+      <c r="K68" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68">
+        <v>8263014</v>
+      </c>
+      <c r="O68">
+        <v>5883660</v>
+      </c>
+      <c r="P68">
+        <v>56005</v>
+      </c>
+      <c r="Q68">
+        <v>319</v>
+      </c>
+      <c r="R68">
+        <v>108</v>
+      </c>
+      <c r="S68">
+        <v>175</v>
+      </c>
+      <c r="T68">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69">
+        <v>95</v>
+      </c>
+      <c r="H69" s="2">
+        <v>40651</v>
+      </c>
+      <c r="I69">
+        <v>48295</v>
+      </c>
+      <c r="J69">
         <v>51</v>
       </c>
-      <c r="G62">
+      <c r="K69" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69">
+        <v>6416970</v>
+      </c>
+      <c r="O69">
+        <v>5415850</v>
+      </c>
+      <c r="P69">
+        <v>179450</v>
+      </c>
+      <c r="Q69">
+        <v>998</v>
+      </c>
+      <c r="R69">
+        <v>204</v>
+      </c>
+      <c r="S69">
+        <v>613</v>
+      </c>
+      <c r="T69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70">
+        <v>90</v>
+      </c>
+      <c r="H70" s="2">
+        <v>41828</v>
+      </c>
+      <c r="I70">
+        <v>36478</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70">
+        <v>6785558</v>
+      </c>
+      <c r="O70">
+        <v>4611815</v>
+      </c>
+      <c r="P70">
+        <v>478080</v>
+      </c>
+      <c r="Q70">
+        <v>1018</v>
+      </c>
+      <c r="R70">
+        <v>398</v>
+      </c>
+      <c r="S70">
+        <v>152</v>
+      </c>
+      <c r="T70">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71">
+        <v>60</v>
+      </c>
+      <c r="H71" s="2">
+        <v>41619</v>
+      </c>
+      <c r="I71">
+        <v>88492</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71">
+        <v>2539619</v>
+      </c>
+      <c r="O71">
+        <v>2497760</v>
+      </c>
+      <c r="P71">
+        <v>392231</v>
+      </c>
+      <c r="Q71">
+        <v>3766</v>
+      </c>
+      <c r="R71">
+        <v>564</v>
+      </c>
+      <c r="S71">
+        <v>1221</v>
+      </c>
+      <c r="T71">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72">
+        <v>14.99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72">
+        <v>84</v>
+      </c>
+      <c r="H72" s="2">
+        <v>40861</v>
+      </c>
+      <c r="I72">
+        <v>21442</v>
+      </c>
+      <c r="J72">
+        <v>83</v>
+      </c>
+      <c r="K72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M72" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72">
+        <v>3289005</v>
+      </c>
+      <c r="O72">
+        <v>2638645</v>
+      </c>
+      <c r="P72">
+        <v>82555</v>
+      </c>
+      <c r="Q72">
+        <v>1575</v>
+      </c>
+      <c r="R72">
+        <v>228</v>
+      </c>
+      <c r="S72">
+        <v>972</v>
+      </c>
+      <c r="T72">
         <v>68</v>
       </c>
-      <c r="H62" s="2">
-        <v>41373</v>
-      </c>
-      <c r="I62">
-        <v>14556</v>
-      </c>
-      <c r="J62">
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73">
+        <v>86</v>
+      </c>
+      <c r="H73" s="2">
+        <v>41508</v>
+      </c>
+      <c r="I73">
+        <v>29668</v>
+      </c>
+      <c r="J73">
+        <v>73</v>
+      </c>
+      <c r="K73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73">
+        <v>2100103</v>
+      </c>
+      <c r="O73">
+        <v>1788682</v>
+      </c>
+      <c r="P73">
+        <v>96120</v>
+      </c>
+      <c r="Q73">
+        <v>1199</v>
+      </c>
+      <c r="R73">
         <v>259</v>
       </c>
-      <c r="K62" t="s">
+      <c r="S73">
+        <v>865</v>
+      </c>
+      <c r="T73">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74">
+        <v>29.99</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74">
+        <v>90</v>
+      </c>
+      <c r="H74" s="2">
+        <v>40444</v>
+      </c>
+      <c r="I74">
+        <v>57078</v>
+      </c>
+      <c r="J74">
+        <v>287</v>
+      </c>
+      <c r="K74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74">
+        <v>7406074</v>
+      </c>
+      <c r="O74">
+        <v>7015200</v>
+      </c>
+      <c r="P74">
+        <v>732720</v>
+      </c>
+      <c r="Q74">
+        <v>9268</v>
+      </c>
+      <c r="R74">
+        <v>868</v>
+      </c>
+      <c r="S74">
+        <v>2314</v>
+      </c>
+      <c r="T74">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75">
+        <v>27.99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75">
+        <v>66</v>
+      </c>
+      <c r="H75" s="2">
+        <v>41032</v>
+      </c>
+      <c r="I75">
+        <v>17689</v>
+      </c>
+      <c r="J75">
+        <v>47</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75">
+        <v>3346754</v>
+      </c>
+      <c r="O75">
+        <v>2360363</v>
+      </c>
+      <c r="P75">
+        <v>52323</v>
+      </c>
+      <c r="Q75">
+        <v>469</v>
+      </c>
+      <c r="R75">
+        <v>104</v>
+      </c>
+      <c r="S75">
+        <v>166</v>
+      </c>
+      <c r="T75">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76">
+        <v>13.99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76">
+        <v>64</v>
+      </c>
+      <c r="H76" s="2">
+        <v>41612</v>
+      </c>
+      <c r="I76">
+        <v>42623</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76">
+        <v>1847400</v>
+      </c>
+      <c r="O76">
+        <v>1809611</v>
+      </c>
+      <c r="P76">
+        <v>120731</v>
+      </c>
+      <c r="Q76">
+        <v>2752</v>
+      </c>
+      <c r="R76">
+        <v>454</v>
+      </c>
+      <c r="S76">
+        <v>1356</v>
+      </c>
+      <c r="T76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77">
+        <v>13.99</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77">
+        <v>87</v>
+      </c>
+      <c r="H77" s="2">
+        <v>40512</v>
+      </c>
+      <c r="I77">
+        <v>13100</v>
+      </c>
+      <c r="J77">
+        <v>48</v>
+      </c>
+      <c r="K77" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77">
+        <v>1975689</v>
+      </c>
+      <c r="O77">
+        <v>1664850</v>
+      </c>
+      <c r="P77">
+        <v>43797</v>
+      </c>
+      <c r="Q77">
+        <v>311</v>
+      </c>
+      <c r="R77">
+        <v>41</v>
+      </c>
+      <c r="S77">
+        <v>106</v>
+      </c>
+      <c r="T77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>92</v>
+      </c>
+      <c r="H78" s="2">
+        <v>39365</v>
+      </c>
+      <c r="I78">
+        <v>258070</v>
+      </c>
+      <c r="J78">
+        <v>513</v>
+      </c>
+      <c r="K78" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="1">
+        <v>27942199</v>
+      </c>
+      <c r="O78" s="1">
+        <v>27942199</v>
+      </c>
+      <c r="P78">
+        <v>2106304</v>
+      </c>
+      <c r="Q78">
+        <v>4456</v>
+      </c>
+      <c r="R78">
+        <v>591</v>
+      </c>
+      <c r="S78">
+        <v>291</v>
+      </c>
+      <c r="T78">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79">
+        <v>9.99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79">
+        <v>83</v>
+      </c>
+      <c r="H79" s="2">
+        <v>40679</v>
+      </c>
+      <c r="I79">
+        <v>75602</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>22</v>
+      </c>
+      <c r="M79" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79">
+        <v>5829592</v>
+      </c>
+      <c r="O79">
+        <v>5450539</v>
+      </c>
+      <c r="P79">
+        <v>409091</v>
+      </c>
+      <c r="Q79">
+        <v>3633</v>
+      </c>
+      <c r="R79">
+        <v>423</v>
+      </c>
+      <c r="S79">
+        <v>1122</v>
+      </c>
+      <c r="T79">
         <v>62</v>
       </c>
-      <c r="L62" t="s">
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80">
+        <v>4.99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80">
+        <v>84</v>
+      </c>
+      <c r="H80" s="2">
+        <v>40814</v>
+      </c>
+      <c r="I80">
+        <v>33859</v>
+      </c>
+      <c r="J80">
+        <v>99</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80">
+        <v>2590779</v>
+      </c>
+      <c r="O80">
+        <v>2284785</v>
+      </c>
+      <c r="P80">
+        <v>110267</v>
+      </c>
+      <c r="Q80">
+        <v>1849</v>
+      </c>
+      <c r="R80">
+        <v>144</v>
+      </c>
+      <c r="S80">
+        <v>391</v>
+      </c>
+      <c r="T80">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81">
+        <v>14.99</v>
+      </c>
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81">
+        <v>94</v>
+      </c>
+      <c r="H81" s="2">
+        <v>40857</v>
+      </c>
+      <c r="I81">
+        <v>126750</v>
+      </c>
+      <c r="J81">
+        <v>75</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81">
+        <v>8893219</v>
+      </c>
+      <c r="O81">
+        <v>8469206</v>
+      </c>
+      <c r="P81">
+        <v>983872</v>
+      </c>
+      <c r="Q81">
+        <v>6469</v>
+      </c>
+      <c r="R81">
+        <v>528</v>
+      </c>
+      <c r="S81">
+        <v>2839</v>
+      </c>
+      <c r="T81">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82">
+        <v>22.99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82">
+        <v>82</v>
+      </c>
+      <c r="H82" s="2">
+        <v>41023</v>
+      </c>
+      <c r="I82">
+        <v>21787</v>
+      </c>
+      <c r="J82">
+        <v>48</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82">
+        <v>1706128</v>
+      </c>
+      <c r="O82">
+        <v>1482881</v>
+      </c>
+      <c r="P82">
+        <v>19379</v>
+      </c>
+      <c r="Q82">
+        <v>766</v>
+      </c>
+      <c r="R82">
+        <v>221</v>
+      </c>
+      <c r="S82">
+        <v>677</v>
+      </c>
+      <c r="T82">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83">
+        <v>7.99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83">
+        <v>86</v>
+      </c>
+      <c r="H83" s="2">
+        <v>39707</v>
+      </c>
+      <c r="I83">
+        <v>8798</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83">
+        <v>2059601</v>
+      </c>
+      <c r="O83">
+        <v>1535592</v>
+      </c>
+      <c r="P83">
+        <v>156582</v>
+      </c>
+      <c r="Q83">
+        <v>860</v>
+      </c>
+      <c r="R83">
+        <v>451</v>
+      </c>
+      <c r="S83">
+        <v>179</v>
+      </c>
+      <c r="T83">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84">
+        <v>88</v>
+      </c>
+      <c r="H84" s="2">
+        <v>41015</v>
+      </c>
+      <c r="I84">
+        <v>17305</v>
+      </c>
+      <c r="J84">
+        <v>52</v>
+      </c>
+      <c r="K84" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84">
+        <v>3060526</v>
+      </c>
+      <c r="O84">
+        <v>2212113</v>
+      </c>
+      <c r="P84">
+        <v>258322</v>
+      </c>
+      <c r="Q84">
+        <v>882</v>
+      </c>
+      <c r="R84">
+        <v>335</v>
+      </c>
+      <c r="S84">
+        <v>285</v>
+      </c>
+      <c r="T84">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85">
+        <v>86</v>
+      </c>
+      <c r="H85" s="2">
+        <v>41337</v>
+      </c>
+      <c r="I85">
+        <v>35970</v>
+      </c>
+      <c r="J85">
+        <v>50</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" t="s">
+        <v>23</v>
+      </c>
+      <c r="N85">
+        <v>3045411</v>
+      </c>
+      <c r="O85">
+        <v>2521015</v>
+      </c>
+      <c r="P85">
+        <v>91081</v>
+      </c>
+      <c r="Q85">
+        <v>903</v>
+      </c>
+      <c r="R85">
+        <v>204</v>
+      </c>
+      <c r="S85">
+        <v>646</v>
+      </c>
+      <c r="T85">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86">
+        <v>70</v>
+      </c>
+      <c r="H86" s="2">
+        <v>41739</v>
+      </c>
+      <c r="I86">
+        <v>13880</v>
+      </c>
+      <c r="J86">
+        <v>57</v>
+      </c>
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" t="s">
+        <v>22</v>
+      </c>
+      <c r="M86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86">
+        <v>2658606</v>
+      </c>
+      <c r="O86">
+        <v>1535592</v>
+      </c>
+      <c r="P86">
+        <v>86818</v>
+      </c>
+      <c r="Q86">
+        <v>1346</v>
+      </c>
+      <c r="R86">
+        <v>449</v>
+      </c>
+      <c r="S86">
+        <v>284</v>
+      </c>
+      <c r="T86">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87">
+        <v>88</v>
+      </c>
+      <c r="H87" s="2">
+        <v>41172</v>
+      </c>
+      <c r="I87">
+        <v>19160</v>
+      </c>
+      <c r="J87">
+        <v>119</v>
+      </c>
+      <c r="K87" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87">
+        <v>2877782</v>
+      </c>
+      <c r="O87">
+        <v>2601244</v>
+      </c>
+      <c r="P87">
+        <v>72284</v>
+      </c>
+      <c r="Q87">
+        <v>1479</v>
+      </c>
+      <c r="R87">
+        <v>268</v>
+      </c>
+      <c r="S87">
+        <v>669</v>
+      </c>
+      <c r="T87">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88">
+        <v>54.99</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88">
+        <v>76</v>
+      </c>
+      <c r="H88" s="2">
+        <v>41519</v>
+      </c>
+      <c r="I88">
+        <v>22251</v>
+      </c>
+      <c r="J88">
+        <v>150</v>
+      </c>
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88">
+        <v>1902824</v>
+      </c>
+      <c r="O88">
+        <v>1805929</v>
+      </c>
+      <c r="P88">
+        <v>219177</v>
+      </c>
+      <c r="Q88">
+        <v>6705</v>
+      </c>
+      <c r="R88">
+        <v>714</v>
+      </c>
+      <c r="S88">
+        <v>2291</v>
+      </c>
+      <c r="T88">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89">
+        <v>29.99</v>
+      </c>
+      <c r="C89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89">
+        <v>90</v>
+      </c>
+      <c r="H89" s="2">
+        <v>40616</v>
+      </c>
+      <c r="I89">
+        <v>9700</v>
+      </c>
+      <c r="J89">
+        <v>106</v>
+      </c>
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89">
+        <v>2340209</v>
+      </c>
+      <c r="O89">
+        <v>2135566</v>
+      </c>
+      <c r="P89">
+        <v>96895</v>
+      </c>
+      <c r="Q89">
+        <v>4310</v>
+      </c>
+      <c r="R89">
+        <v>511</v>
+      </c>
+      <c r="S89">
+        <v>1405</v>
+      </c>
+      <c r="T89">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90">
+        <v>75</v>
+      </c>
+      <c r="H90" s="2">
+        <v>41827</v>
+      </c>
+      <c r="I90">
+        <v>128061</v>
+      </c>
+      <c r="J90">
+        <v>37</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90" s="1">
+        <v>14661767</v>
+      </c>
+      <c r="O90" s="1">
+        <v>10815229</v>
+      </c>
+      <c r="P90">
+        <v>957129</v>
+      </c>
+      <c r="Q90">
+        <v>645</v>
+      </c>
+      <c r="R90">
+        <v>233</v>
+      </c>
+      <c r="S90">
+        <v>162</v>
+      </c>
+      <c r="T90">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91">
         <v>62</v>
       </c>
-      <c r="M62" t="s">
-        <v>61</v>
-      </c>
-      <c r="N62">
-        <v>2203543</v>
-      </c>
-      <c r="O62">
-        <v>1956863</v>
-      </c>
-      <c r="P62">
-        <v>160830</v>
-      </c>
-      <c r="Q62">
-        <v>1938</v>
-      </c>
-      <c r="R62">
-        <v>420</v>
-      </c>
-      <c r="S62">
-        <v>449</v>
-      </c>
-      <c r="T62">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="1"/>
+      <c r="H91" s="2">
+        <v>41821</v>
+      </c>
+      <c r="I91">
+        <v>12275</v>
+      </c>
+      <c r="J91">
+        <v>30</v>
+      </c>
+      <c r="K91" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91">
+        <v>2985529</v>
+      </c>
+      <c r="O91">
+        <v>1793139</v>
+      </c>
+      <c r="P91">
+        <v>124801</v>
+      </c>
+      <c r="Q91">
+        <v>560</v>
+      </c>
+      <c r="R91">
+        <v>271</v>
+      </c>
+      <c r="S91">
+        <v>85</v>
+      </c>
+      <c r="T91">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92">
+        <v>68</v>
+      </c>
+      <c r="H92" s="2">
+        <v>41358</v>
+      </c>
+      <c r="I92">
+        <v>57693</v>
+      </c>
+      <c r="J92">
+        <v>132</v>
+      </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92">
+        <v>7256081</v>
+      </c>
+      <c r="O92">
+        <v>4237801</v>
+      </c>
+      <c r="P92">
+        <v>471297</v>
+      </c>
+      <c r="Q92">
+        <v>3577</v>
+      </c>
+      <c r="R92">
+        <v>932</v>
+      </c>
+      <c r="S92">
+        <v>294</v>
+      </c>
+      <c r="T92">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93">
+        <v>14.99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93">
+        <v>85</v>
+      </c>
+      <c r="H93" s="2">
+        <v>39862</v>
+      </c>
+      <c r="I93">
+        <v>2597</v>
+      </c>
+      <c r="J93">
+        <v>73</v>
+      </c>
+      <c r="K93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93">
+        <v>2258042</v>
+      </c>
+      <c r="O93">
+        <v>1800310</v>
+      </c>
+      <c r="P93">
+        <v>36820</v>
+      </c>
+      <c r="Q93">
+        <v>1897</v>
+      </c>
+      <c r="R93">
+        <v>268</v>
+      </c>
+      <c r="S93">
+        <v>779</v>
+      </c>
+      <c r="T93">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94">
+        <v>82</v>
+      </c>
+      <c r="H94" s="2">
+        <v>41501</v>
+      </c>
+      <c r="I94">
+        <v>36143</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94">
+        <v>5619330</v>
+      </c>
+      <c r="O94">
+        <v>3265556</v>
+      </c>
+      <c r="P94">
+        <v>469747</v>
+      </c>
+      <c r="Q94">
+        <v>2371</v>
+      </c>
+      <c r="R94">
+        <v>470</v>
+      </c>
+      <c r="S94">
+        <v>349</v>
+      </c>
+      <c r="T94">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95">
+        <v>89</v>
+      </c>
+      <c r="H95" s="2">
+        <v>41193</v>
+      </c>
+      <c r="I95">
+        <v>21953</v>
+      </c>
+      <c r="J95">
+        <v>85</v>
+      </c>
+      <c r="K95" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95">
+        <v>2648722</v>
+      </c>
+      <c r="O95">
+        <v>2198742</v>
+      </c>
+      <c r="P95">
+        <v>134490</v>
+      </c>
+      <c r="Q95">
+        <v>2722</v>
+      </c>
+      <c r="R95">
+        <v>543</v>
+      </c>
+      <c r="S95">
+        <v>1356</v>
+      </c>
+      <c r="T95">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>